--- a/data/missed_by_all.xlsx
+++ b/data/missed_by_all.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/Trivia/food_drink_trivia/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7632B1E8-CDF3-444A-AC8A-4937FEA0175E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE0CBAB3-7942-B146-86F0-CEA9061C3A45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16260" xr2:uid="{7F5598E1-4053-6343-B40E-0554D41FE2E0}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>Round</t>
   </si>
@@ -42,6 +42,21 @@
   </si>
   <si>
     <t>Answer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">General Knowledge </t>
+  </si>
+  <si>
+    <t>What U.S. city has the most breweries per capita?</t>
+  </si>
+  <si>
+    <t>How many gallons of water does it take to make a 1/3 pound hamburger?</t>
+  </si>
+  <si>
+    <t>Portland, Maine</t>
+  </si>
+  <si>
+    <t>B. 660</t>
   </si>
 </sst>
 </file>
@@ -77,8 +92,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -393,13 +411,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6C5048B-1730-C24C-BEB0-17BDF0380154}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -410,6 +433,28 @@
       </c>
       <c r="C1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="51">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="68">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
